--- a/input/test/MatrixModel_16.xlsx
+++ b/input/test/MatrixModel_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -42,9 +42,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>Step Count</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,9 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -698,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -706,15 +703,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -722,37 +719,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -786,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -813,7 +810,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>0.6</v>
@@ -825,7 +822,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>0.6</v>
@@ -840,7 +837,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -855,7 +852,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -902,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -931,7 +928,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>0.7</v>
@@ -946,7 +943,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>0.1</v>
@@ -963,7 +960,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -978,7 +975,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1017,25 +1014,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>0.4</v>
@@ -1050,7 +1047,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1064,7 +1061,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>0.6</v>
@@ -1078,7 +1075,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>0.1</v>
@@ -1096,7 +1093,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
